--- a/data_year/zb/公共管理、社会保障及其他/交通事故/交通事故直接财产损失.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/交通事故/交通事故直接财产损失.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,807 +493,451 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263290</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>92633.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>29.5</v>
+      </c>
       <c r="D2" t="n">
-        <v>3931</v>
+        <v>1012.9</v>
       </c>
       <c r="E2" t="n">
-        <v>11342.8</v>
+        <v>6742.8</v>
       </c>
       <c r="F2" t="n">
-        <v>262333.8</v>
+        <v>90420.2</v>
       </c>
       <c r="G2" t="n">
-        <v>237332.1</v>
+        <v>81186.10000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>23825.3</v>
+        <v>5484.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1542</v>
+        <v>266.3</v>
       </c>
       <c r="J2" t="n">
-        <v>1817.3</v>
+        <v>920.3</v>
       </c>
       <c r="K2" t="n">
-        <v>46021.7</v>
+        <v>43925.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2054.3</v>
+        <v>1263.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308787.3</v>
+        <v>107873</v>
       </c>
       <c r="C3" t="n">
-        <v>191.000000000012</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>3753</v>
+        <v>847</v>
       </c>
       <c r="E3" t="n">
-        <v>16403.6</v>
+        <v>7445</v>
       </c>
       <c r="F3" t="n">
-        <v>303185.6</v>
+        <v>104788</v>
       </c>
       <c r="G3" t="n">
-        <v>273089.9</v>
+        <v>94912</v>
       </c>
       <c r="H3" t="n">
-        <v>25538.7</v>
+        <v>8025</v>
       </c>
       <c r="I3" t="n">
-        <v>2279.8</v>
+        <v>441</v>
       </c>
       <c r="J3" t="n">
-        <v>2583.7</v>
+        <v>1346</v>
       </c>
       <c r="K3" t="n">
-        <v>52638.9</v>
+        <v>52383</v>
       </c>
       <c r="L3" t="n">
-        <v>2827</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332438.1</v>
+        <v>117489.6</v>
       </c>
       <c r="C4" t="n">
-        <v>25105.9</v>
+        <v>14.1</v>
       </c>
       <c r="D4" t="n">
-        <v>4869.5</v>
+        <v>1832.8</v>
       </c>
       <c r="E4" t="n">
-        <v>17054.1</v>
+        <v>9977.799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>301707.5</v>
+        <v>114199.5</v>
       </c>
       <c r="G4" t="n">
-        <v>292431</v>
+        <v>101244.6</v>
       </c>
       <c r="H4" t="n">
-        <v>33525.7</v>
+        <v>49</v>
       </c>
       <c r="I4" t="n">
-        <v>1953.5</v>
+        <v>274.3</v>
       </c>
       <c r="J4" t="n">
-        <v>2412.7</v>
+        <v>1160</v>
       </c>
       <c r="K4" t="n">
-        <v>57203.6</v>
+        <v>262.8</v>
       </c>
       <c r="L4" t="n">
-        <v>3212</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>336914.6</v>
+        <v>103896.6</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.69999999995</v>
+        <v>14.2</v>
       </c>
       <c r="D5" t="n">
-        <v>3823.3</v>
+        <v>864.9</v>
       </c>
       <c r="E5" t="n">
-        <v>13881.9</v>
+        <v>7643</v>
       </c>
       <c r="F5" t="n">
-        <v>330502.4</v>
+        <v>100034.1</v>
       </c>
       <c r="G5" t="n">
-        <v>300164</v>
-      </c>
-      <c r="H5" t="n">
-        <v>33922</v>
-      </c>
+        <v>90267.10000000001</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>2027.5</v>
+        <v>316.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2738.3</v>
+        <v>1479.5</v>
       </c>
       <c r="K5" t="n">
-        <v>58312</v>
+        <v>258.5</v>
       </c>
       <c r="L5" t="n">
-        <v>2535.2</v>
+        <v>2368.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239141</v>
+        <v>107542.9</v>
       </c>
       <c r="C6" t="n">
-        <v>10519</v>
+        <v>34.1</v>
       </c>
       <c r="D6" t="n">
-        <v>2566</v>
+        <v>656.5</v>
       </c>
       <c r="E6" t="n">
-        <v>13476</v>
+        <v>7987.9</v>
       </c>
       <c r="F6" t="n">
-        <v>224827</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+        <v>103386</v>
+      </c>
+      <c r="G6" t="n">
+        <v>93837.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>258.5</v>
+      </c>
       <c r="I6" t="n">
-        <v>1309</v>
+        <v>265.9</v>
       </c>
       <c r="J6" t="n">
-        <v>1896</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>1403.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>71</v>
+      </c>
       <c r="L6" t="n">
-        <v>1899</v>
+        <v>2719.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188401.2</v>
+        <v>103691.7</v>
       </c>
       <c r="C7" t="n">
-        <v>113</v>
+        <v>36.1</v>
       </c>
       <c r="D7" t="n">
-        <v>1997.1</v>
+        <v>703.4</v>
       </c>
       <c r="E7" t="n">
-        <v>13789.3</v>
+        <v>7802.7</v>
       </c>
       <c r="F7" t="n">
-        <v>183841.9</v>
+        <v>98928.60000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>167997.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7811.9</v>
-      </c>
+        <v>89518.39999999999</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>923.2</v>
+        <v>282.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3014.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>57886.1</v>
-      </c>
+        <v>1804.9</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1431.8</v>
+        <v>2922.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>148956</v>
+        <v>120759.9</v>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>49.4</v>
       </c>
       <c r="D8" t="n">
-        <v>1926</v>
+        <v>877.6</v>
       </c>
       <c r="E8" t="n">
-        <v>11330</v>
+        <v>9927.200000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>146385</v>
+        <v>114586.4</v>
       </c>
       <c r="G8" t="n">
-        <v>127771</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6689</v>
-      </c>
+        <v>102970.6</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>657</v>
+        <v>494.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1179</v>
-      </c>
-      <c r="K8" t="n">
-        <v>52441</v>
-      </c>
+        <v>1875.9</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1333</v>
+        <v>4248.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119878.3</v>
+        <v>121311.3</v>
       </c>
       <c r="C9" t="n">
-        <v>36.2</v>
+        <v>25.6</v>
       </c>
       <c r="D9" t="n">
-        <v>1704.3</v>
+        <v>706.9</v>
       </c>
       <c r="E9" t="n">
-        <v>9256.9</v>
+        <v>9815.1</v>
       </c>
       <c r="F9" t="n">
-        <v>117235.8</v>
+        <v>115556.2</v>
       </c>
       <c r="G9" t="n">
-        <v>104453.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5441</v>
-      </c>
+        <v>103978</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>479.7</v>
+        <v>358.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1356.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>45666.6</v>
-      </c>
+        <v>1755.9</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1249.5</v>
+        <v>3973.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100972.2</v>
+        <v>138455.9</v>
       </c>
       <c r="C10" t="n">
-        <v>9.699999999999999</v>
+        <v>61.2</v>
       </c>
       <c r="D10" t="n">
-        <v>1213.1</v>
+        <v>662.3</v>
       </c>
       <c r="E10" t="n">
-        <v>7825.6</v>
+        <v>10682.8</v>
       </c>
       <c r="F10" t="n">
-        <v>99111</v>
+        <v>131023.5</v>
       </c>
       <c r="G10" t="n">
-        <v>88280.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4083</v>
-      </c>
+        <v>118671.6</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>394</v>
+        <v>376.6</v>
       </c>
       <c r="J10" t="n">
-        <v>728.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>45808</v>
-      </c>
+        <v>1904.9</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1122.8</v>
+        <v>5466.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91436.8</v>
+        <v>134617.9</v>
       </c>
       <c r="C11" t="n">
-        <v>14.3</v>
+        <v>119.4</v>
       </c>
       <c r="D11" t="n">
-        <v>1137.2</v>
+        <v>574.8</v>
       </c>
       <c r="E11" t="n">
-        <v>7117.6</v>
+        <v>10771.5</v>
       </c>
       <c r="F11" t="n">
-        <v>89374.7</v>
+        <v>125800.9</v>
       </c>
       <c r="G11" t="n">
-        <v>79770.89999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4604.4</v>
-      </c>
+        <v>111420.6</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>271.5</v>
+        <v>581.2</v>
       </c>
       <c r="J11" t="n">
-        <v>829.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>42159.1</v>
-      </c>
+        <v>2485.3</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1218.5</v>
+        <v>6212.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>92633.5</v>
+        <v>131360.5747</v>
       </c>
       <c r="C12" t="n">
-        <v>29.5</v>
+        <v>75.5617</v>
       </c>
       <c r="D12" t="n">
-        <v>1012.9</v>
+        <v>515.2489</v>
       </c>
       <c r="E12" t="n">
-        <v>6742.8</v>
+        <v>11742.2025</v>
       </c>
       <c r="F12" t="n">
-        <v>90420.2</v>
+        <v>122800.8922</v>
       </c>
       <c r="G12" t="n">
-        <v>81186.10000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5484.5</v>
-      </c>
+        <v>107769.3568</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>266.3</v>
+        <v>585.5913</v>
       </c>
       <c r="J12" t="n">
-        <v>920.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>43925.4</v>
-      </c>
+        <v>2212.7249</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1263.6</v>
+        <v>6271.3959</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107873</v>
+        <v>145035.9475</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>110.0026</v>
       </c>
       <c r="D13" t="n">
-        <v>847</v>
+        <v>486.8534</v>
       </c>
       <c r="E13" t="n">
-        <v>7445</v>
+        <v>12380.2669</v>
       </c>
       <c r="F13" t="n">
-        <v>104788</v>
+        <v>134548.6453</v>
       </c>
       <c r="G13" t="n">
-        <v>94912</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8025</v>
-      </c>
+        <v>118578.2154</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>441</v>
+        <v>613.4876</v>
       </c>
       <c r="J13" t="n">
-        <v>1346</v>
-      </c>
-      <c r="K13" t="n">
-        <v>52383</v>
-      </c>
+        <v>2345.0595</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>117489.6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1832.8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9977.799999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>114199.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>101244.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>49</v>
-      </c>
-      <c r="I14" t="n">
-        <v>274.3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1160</v>
-      </c>
-      <c r="K14" t="n">
-        <v>262.8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>103896.6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>864.9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7643</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100034.1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>90267.10000000001</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>316.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1479.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2368.8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>107542.9</v>
-      </c>
-      <c r="C16" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>656.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7987.9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>103386</v>
-      </c>
-      <c r="G16" t="n">
-        <v>93837.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>265.9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1403.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>71</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2719.4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>103691.7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>703.4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7802.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>98928.60000000001</v>
-      </c>
-      <c r="G17" t="n">
-        <v>89518.39999999999</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>282.7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1804.9</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>2922.1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>120759.9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>877.6</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9927.200000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>114586.4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>102970.6</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>494.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1875.9</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>4248.2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>121311.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>706.9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9815.1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>115556.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>103978</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>358.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1755.9</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>3973.7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>138455.9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>662.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10682.8</v>
-      </c>
-      <c r="F20" t="n">
-        <v>131023.5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>118671.6</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>376.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1904.9</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>5466.3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>134617.9</v>
-      </c>
-      <c r="C21" t="n">
-        <v>119.4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>574.8</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10771.5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>125800.9</v>
-      </c>
-      <c r="G21" t="n">
-        <v>111420.6</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>581.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2485.3</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>6212.2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>131360.5747</v>
-      </c>
-      <c r="C22" t="n">
-        <v>75.5617</v>
-      </c>
-      <c r="D22" t="n">
-        <v>515.2489</v>
-      </c>
-      <c r="E22" t="n">
-        <v>11742.2025</v>
-      </c>
-      <c r="F22" t="n">
-        <v>122800.8922</v>
-      </c>
-      <c r="G22" t="n">
-        <v>107769.3568</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
-        <v>585.5913</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2212.7249</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>6271.3959</v>
+        <v>8032.2401</v>
       </c>
     </row>
   </sheetData>
